--- a/financials/aal.xlsx
+++ b/financials/aal.xlsx
@@ -23,10 +23,155 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+  <si>
+    <t>OPERATING INCOME</t>
+  </si>
+  <si>
+    <t>mainline</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>passenger revenue</t>
+  </si>
+  <si>
+    <t>salaries and wages</t>
+  </si>
+  <si>
+    <t>aircraft fuel and fuel taxes</t>
+  </si>
+  <si>
+    <t>regional carriers expense</t>
+  </si>
+  <si>
+    <t>depreciation and amortization</t>
+  </si>
+  <si>
+    <t>landing fees and other rents</t>
+  </si>
+  <si>
+    <t>aircraft rent</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Revenue</t>
+  </si>
+  <si>
+    <t>OPERATING EXPENSES</t>
+  </si>
+  <si>
+    <t>NONOPERATING EXPENSES</t>
+  </si>
+  <si>
+    <t>intrest</t>
+  </si>
+  <si>
+    <t>Nonoperating Expenses</t>
+  </si>
+  <si>
+    <t>income before taxes</t>
+  </si>
+  <si>
+    <t>NET INCOME (Profit)</t>
+  </si>
+  <si>
+    <t>OPERATING MARGIN</t>
+  </si>
+  <si>
+    <t>PROFIT MARGIN</t>
+  </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>TAX RATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>REVENUE GROWTH</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <r>
+      <t>REVENUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ($ in millions)</t>
+    </r>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>price of oil has collapsed</t>
+  </si>
+  <si>
+    <t>maintenance materials and repairs</t>
+  </si>
+  <si>
+    <t>special items</t>
+  </si>
+  <si>
+    <t>why did they claim a 3B tax benefit? Look back at previous financial history for answer. Did they lose a bunch of money for one / a couple years?</t>
+  </si>
+  <si>
+    <t>passengers seem to hold steady. Are they lowering ticket prices?</t>
+  </si>
+  <si>
+    <t>hiring more, paying more, or paying their greedy executives??!?</t>
+  </si>
+  <si>
+    <t>selling expenses (marketing, etc)</t>
+  </si>
+  <si>
+    <t>paying no tax, but not growing….</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +199,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,12 +523,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="4" width="12" customWidth="1"/>
+    <col min="6" max="6" width="85.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>27909</v>
+      </c>
+      <c r="C2">
+        <v>29037</v>
+      </c>
+      <c r="D2">
+        <v>30802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6670</v>
+      </c>
+      <c r="C3">
+        <v>6475</v>
+      </c>
+      <c r="D3">
+        <v>6322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>B3+B2</f>
+        <v>34579</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:D4" si="0">C3+C2</f>
+        <v>35512</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>37124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>700</v>
+      </c>
+      <c r="C6">
+        <v>760</v>
+      </c>
+      <c r="D6">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4901</v>
+      </c>
+      <c r="C7">
+        <v>4718</v>
+      </c>
+      <c r="D7">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5">
+        <f>B4+B6+B7</f>
+        <v>40180</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:D8" si="1">C4+C6+C7</f>
+        <v>40990</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>42650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5071</v>
+      </c>
+      <c r="C12">
+        <v>6226</v>
+      </c>
+      <c r="D12">
+        <v>10592</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>10890</v>
+      </c>
+      <c r="C13">
+        <v>9524</v>
+      </c>
+      <c r="D13">
+        <v>8508</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>6044</v>
+      </c>
+      <c r="C14">
+        <v>5983</v>
+      </c>
+      <c r="D14">
+        <v>6516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>1834</v>
+      </c>
+      <c r="C15">
+        <v>1889</v>
+      </c>
+      <c r="D15">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>1772</v>
+      </c>
+      <c r="C16">
+        <v>1731</v>
+      </c>
+      <c r="D16">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>1203</v>
+      </c>
+      <c r="C17">
+        <v>1250</v>
+      </c>
+      <c r="D17">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>1323</v>
+      </c>
+      <c r="C18">
+        <v>1394</v>
+      </c>
+      <c r="D18">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>1525</v>
+      </c>
+      <c r="C19">
+        <v>1364</v>
+      </c>
+      <c r="D19">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>709</v>
+      </c>
+      <c r="C20">
+        <v>1051</v>
+      </c>
+      <c r="D20">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>4525</v>
+      </c>
+      <c r="C21">
+        <v>4374</v>
+      </c>
+      <c r="D21">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5">
+        <f>SUM(B12:B21)</f>
+        <v>34896</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUM(C12:C21)</f>
+        <v>34786</v>
+      </c>
+      <c r="D22" s="5">
+        <f>SUM(D12:D21)</f>
+        <v>38401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3">
+        <f>991-63</f>
+        <v>928</v>
+      </c>
+      <c r="C25" s="3">
+        <f>880-39</f>
+        <v>841</v>
+      </c>
+      <c r="D25" s="3">
+        <f>887-31</f>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3">
+        <v>747</v>
+      </c>
+      <c r="D26" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="5">
+        <f>B25+B26</f>
+        <v>985</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:D27" si="2">C25+C26</f>
+        <v>1588</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="2"/>
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <f>B8-B22-B27</f>
+        <v>4299</v>
+      </c>
+      <c r="C29">
+        <f>C8-C22-C27</f>
+        <v>4616</v>
+      </c>
+      <c r="D29">
+        <f>D8-D22-D27</f>
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>1623</v>
+      </c>
+      <c r="C30">
+        <v>-2994</v>
+      </c>
+      <c r="D30">
+        <v>330</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4">
+        <f>B30/B29</f>
+        <v>0.37752965806001398</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" ref="C31:D31" si="3">C30/C29</f>
+        <v>-0.64861351819757362</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="3"/>
+        <v>0.10273972602739725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5">
+        <f>B8-B22</f>
+        <v>5284</v>
+      </c>
+      <c r="C33" s="5">
+        <f>C8-C22</f>
+        <v>6204</v>
+      </c>
+      <c r="D33" s="5">
+        <f>D8-D22</f>
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="5">
+        <f>B33-B27-B31</f>
+        <v>4298.6224703419402</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" ref="C34:D34" si="4">C33-C27-C31</f>
+        <v>4616.6486135181976</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="4"/>
+        <v>3211.8972602739727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B8/C8-1</f>
+        <v>-1.9760917296901659E-2</v>
+      </c>
+      <c r="C36" s="4">
+        <f>C8/D8-1</f>
+        <v>-3.8921453692848718E-2</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B33/B8</f>
+        <v>0.13150821304131408</v>
+      </c>
+      <c r="C37" s="4">
+        <f>C33/C8</f>
+        <v>0.15135398877775066</v>
+      </c>
+      <c r="D37" s="4">
+        <f>D33/D8</f>
+        <v>9.9624853458382179E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B34/B8</f>
+        <v>0.10698413315933152</v>
+      </c>
+      <c r="C38" s="4">
+        <f>C34/C8</f>
+        <v>0.11262865609949251</v>
+      </c>
+      <c r="D38" s="4">
+        <f>D34/D8</f>
+        <v>7.5308259326470645E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/financials/aal.xlsx
+++ b/financials/aal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>OPERATING INCOME</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>paying no tax, but not growing….</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>huge debt intrest payments -.-</t>
   </si>
 </sst>
 </file>
@@ -199,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -207,6 +213,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -523,20 +533,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="85.7109375" customWidth="1"/>
+    <col min="7" max="7" width="85.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -549,11 +559,14 @@
       <c r="D1" s="2">
         <v>2014</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -566,8 +579,9 @@
       <c r="D2">
         <v>30802</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -580,8 +594,9 @@
       <c r="D3">
         <v>6322</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -597,11 +612,15 @@
         <f t="shared" si="0"/>
         <v>37124</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="7"/>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -614,8 +633,9 @@
       <c r="D6">
         <v>875</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -628,8 +648,9 @@
       <c r="D7">
         <v>4651</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -645,14 +666,18 @@
         <f t="shared" si="1"/>
         <v>42650</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="5">
+        <f>AVERAGE(B8:D8)</f>
+        <v>41273.333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -665,11 +690,12 @@
       <c r="D12">
         <v>10592</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="7"/>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -682,11 +708,12 @@
       <c r="D13">
         <v>8508</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="7"/>
+      <c r="G13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -699,8 +726,9 @@
       <c r="D14">
         <v>6516</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -713,8 +741,9 @@
       <c r="D15">
         <v>2051</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -727,8 +756,9 @@
       <c r="D16">
         <v>1727</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -741,8 +771,9 @@
       <c r="D17">
         <v>1250</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -755,8 +786,9 @@
       <c r="D18">
         <v>1544</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -769,8 +801,9 @@
       <c r="D19">
         <v>1295</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -783,8 +816,9 @@
       <c r="D20">
         <v>800</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -797,8 +831,9 @@
       <c r="D21">
         <v>4118</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -814,13 +849,17 @@
         <f>SUM(D12:D21)</f>
         <v>38401</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="5">
+        <f t="shared" ref="E13:E38" si="2">AVERAGE(B22:D22)</f>
+        <v>36027.666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -837,7 +876,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -851,7 +890,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -860,15 +899,19 @@
         <v>985</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:D27" si="2">C25+C26</f>
+        <f t="shared" ref="C27:D27" si="3">C25+C26</f>
         <v>1588</v>
       </c>
       <c r="D27" s="5">
+        <f t="shared" si="3"/>
+        <v>1037</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="2"/>
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1203.3333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -884,8 +927,15 @@
         <f>D8-D22-D27</f>
         <v>3212</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="7">
+        <f>AVERAGE(B29:D29)</f>
+        <v>4042.3333333333335</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -898,11 +948,15 @@
       <c r="D30">
         <v>330</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" s="7">
+        <f>AVERAGE(B30:D30)</f>
+        <v>-347</v>
+      </c>
+      <c r="G30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -911,20 +965,24 @@
         <v>0.37752965806001398</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" ref="C31:D31" si="3">C30/C29</f>
+        <f t="shared" ref="C31:E31" si="4">C30/C29</f>
         <v>-0.64861351819757362</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10273972602739725</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>-8.5841510678650937E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,8 +998,12 @@
         <f>D8-D22</f>
         <v>4249</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="5">
+        <f>E8-E22</f>
+        <v>5245.6666666666715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -950,15 +1012,19 @@
         <v>4298.6224703419402</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:D34" si="4">C33-C27-C31</f>
+        <f t="shared" ref="C34:E34" si="5">C33-C27-C31</f>
         <v>4616.6486135181976</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3211.8972602739727</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="5">
+        <f t="shared" si="5"/>
+        <v>4042.4191748440171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -973,11 +1039,15 @@
       <c r="D36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="4">
+        <f>AVERAGE(B36:C36)</f>
+        <v>-2.9341185494875188E-2</v>
+      </c>
+      <c r="G36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -993,8 +1063,12 @@
         <f>D33/D8</f>
         <v>9.9624853458382179E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="4">
+        <f>E33/E8</f>
+        <v>0.12709578420287526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -1009,6 +1083,10 @@
       <c r="D38" s="4">
         <f>D34/D8</f>
         <v>7.5308259326470645E-2</v>
+      </c>
+      <c r="E38" s="4">
+        <f>E34/E8</f>
+        <v>9.794263870563763E-2</v>
       </c>
     </row>
   </sheetData>
